--- a/output/SEM_Results.xlsx
+++ b/output/SEM_Results.xlsx
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1.408560569277535</v>
+        <v>-1.40856056927854</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6410292093993364</v>
+        <v>0.6410292093997074</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.197342256205768</v>
+        <v>-2.197342256206064</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0279960119105167</v>
+        <v>0.02799601191049539</v>
       </c>
     </row>
     <row r="3">
@@ -522,16 +522,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.956829341915206</v>
+        <v>0.9568293419162399</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5781413317615799</v>
+        <v>0.5781413317618713</v>
       </c>
       <c r="G3" t="n">
-        <v>1.655009405741879</v>
+        <v>1.655009405742833</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09792258999717052</v>
+        <v>0.09792258999697689</v>
       </c>
     </row>
     <row r="4">
@@ -554,16 +554,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.122892294359509</v>
+        <v>2.122892294360293</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6687187145681597</v>
+        <v>0.6687187145685659</v>
       </c>
       <c r="G4" t="n">
-        <v>3.174566896527249</v>
+        <v>3.174566896526493</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001500602962978492</v>
+        <v>0.001500602962982267</v>
       </c>
     </row>
     <row r="5">
@@ -586,16 +586,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.4913044939418892</v>
+        <v>-0.4913044939421647</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3315444568365143</v>
+        <v>0.3315444568366832</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.48186610817828</v>
+        <v>-1.481866108178357</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1383759246096783</v>
+        <v>0.1383759246096579</v>
       </c>
     </row>
     <row r="6">
@@ -618,16 +618,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.9083062390163834</v>
+        <v>-0.9083062390171905</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3965969579165866</v>
+        <v>0.3965969579168577</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.290250141568486</v>
+        <v>-2.290250141568955</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02200682026437306</v>
+        <v>0.02200682026434597</v>
       </c>
     </row>
     <row r="7">
@@ -650,16 +650,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.7025592131728482</v>
+        <v>0.7025592131734896</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4003733726636797</v>
+        <v>0.4003733726639121</v>
       </c>
       <c r="G7" t="n">
-        <v>1.754760084310739</v>
+        <v>1.754760084311322</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07930035379297862</v>
+        <v>0.0793003537928787</v>
       </c>
     </row>
     <row r="8">
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.326869159071227</v>
+        <v>1.326869159072023</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3689899391201507</v>
+        <v>0.3689899391204577</v>
       </c>
       <c r="G8" t="n">
-        <v>3.595949424072443</v>
+        <v>3.595949424071606</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0003232105958608233</v>
+        <v>0.0003232105958617115</v>
       </c>
     </row>
     <row r="9">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.1714347578441363</v>
+        <v>-0.1714347578443713</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2053685559709995</v>
+        <v>0.2053685559711235</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.8347663401183485</v>
+        <v>-0.834766340118989</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4038492811747925</v>
+        <v>0.4038492811744316</v>
       </c>
     </row>
     <row r="10">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.048250237616978</v>
+        <v>1.048250237616879</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1433686331228673</v>
+        <v>0.1433686331228532</v>
       </c>
       <c r="G11" t="n">
-        <v>7.311573074085967</v>
+        <v>7.311573074085996</v>
       </c>
       <c r="H11" t="n">
         <v>2.640110352558622e-13</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.039415372153724</v>
+        <v>1.039415372153698</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1270507503105057</v>
+        <v>0.1270507503104965</v>
       </c>
       <c r="G12" t="n">
-        <v>8.181103768417453</v>
+        <v>8.181103768417838</v>
       </c>
       <c r="H12" t="n">
         <v>2.220446049250313e-16</v>
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.9761036440406277</v>
+        <v>0.9761036440405991</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1385085969343087</v>
+        <v>0.1385085969343008</v>
       </c>
       <c r="G13" t="n">
-        <v>7.047242305808087</v>
+        <v>7.047242305808279</v>
       </c>
       <c r="H13" t="n">
         <v>1.824984607878832e-12</v>
@@ -880,13 +880,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.9358177013872122</v>
+        <v>0.9358177013872186</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1312625630877949</v>
+        <v>0.1312625630877837</v>
       </c>
       <c r="G14" t="n">
-        <v>7.129357216300594</v>
+        <v>7.129357216301252</v>
       </c>
       <c r="H14" t="n">
         <v>1.008304550964567e-12</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.336236811484816</v>
+        <v>1.336236811484688</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1882514586287307</v>
+        <v>0.1882514586286862</v>
       </c>
       <c r="G16" t="n">
-        <v>7.098148514817314</v>
+        <v>7.098148514818311</v>
       </c>
       <c r="H16" t="n">
         <v>1.264321980443128e-12</v>
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.238111886864881</v>
+        <v>1.238111886864788</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1759334948440407</v>
+        <v>0.1759334948440028</v>
       </c>
       <c r="G17" t="n">
-        <v>7.037385848302449</v>
+        <v>7.037385848303432</v>
       </c>
       <c r="H17" t="n">
         <v>1.958877504648626e-12</v>
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.150157639161581</v>
+        <v>1.15015763916143</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1642940711500852</v>
+        <v>0.1642940711500444</v>
       </c>
       <c r="G18" t="n">
-        <v>7.000603436893918</v>
+        <v>7.000603436894739</v>
       </c>
       <c r="H18" t="n">
         <v>2.548627975329509e-12</v>
@@ -1046,13 +1046,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.9203574846528404</v>
+        <v>0.9203574846527942</v>
       </c>
       <c r="F19" t="n">
-        <v>0.188024003301753</v>
+        <v>0.1880240033017228</v>
       </c>
       <c r="G19" t="n">
-        <v>4.894893569364634</v>
+        <v>4.894893569365175</v>
       </c>
       <c r="H19" t="n">
         <v>9.835894536625034e-07</v>
@@ -1116,13 +1116,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.7944924198616858</v>
+        <v>0.7944924198617775</v>
       </c>
       <c r="F21" t="n">
-        <v>0.130891994114451</v>
+        <v>0.130891994114477</v>
       </c>
       <c r="G21" t="n">
-        <v>6.069832041529734</v>
+        <v>6.069832041529227</v>
       </c>
       <c r="H21" t="n">
         <v>1.280440864448451e-09</v>
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.7301619472521118</v>
+        <v>0.730161947252265</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1493176957922892</v>
+        <v>0.1493176957923159</v>
       </c>
       <c r="G22" t="n">
-        <v>4.889989383863287</v>
+        <v>4.889989383863438</v>
       </c>
       <c r="H22" t="n">
         <v>1.008414160841298e-06</v>
@@ -1218,13 +1218,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.9800315838679351</v>
+        <v>0.9800315838679344</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05156330680637236</v>
+        <v>0.0515633068063663</v>
       </c>
       <c r="G24" t="n">
-        <v>19.00637574562641</v>
+        <v>19.00637574562863</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.9171748565532477</v>
+        <v>0.9171748565532444</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0541140895328603</v>
+        <v>0.0541140895328571</v>
       </c>
       <c r="G25" t="n">
-        <v>16.94891043079183</v>
+        <v>16.94891043079277</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.9998711633849485</v>
+        <v>0.9998711633849936</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07181008638203425</v>
+        <v>0.07181008638203497</v>
       </c>
       <c r="G27" t="n">
-        <v>13.92382621644049</v>
+        <v>13.92382621644098</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.164264445026629</v>
+        <v>1.164264445026584</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1079078135988506</v>
+        <v>0.1079078135988292</v>
       </c>
       <c r="G29" t="n">
-        <v>10.7894359656291</v>
+        <v>10.78943596563083</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1422,16 +1422,16 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1051906493747823</v>
+        <v>0.1051906493747832</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06450197766109043</v>
+        <v>0.06450197766111483</v>
       </c>
       <c r="G30" t="n">
-        <v>1.630812777956197</v>
+        <v>1.630812777955594</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1029298303924737</v>
+        <v>0.1029298303926012</v>
       </c>
     </row>
     <row r="31">
@@ -1454,16 +1454,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>6.17753736652e-17</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1289223995978062</v>
+        <v>0.1289223995978304</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4.791671102727478e-16</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="32">
@@ -1486,13 +1486,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.156983130590454</v>
+        <v>1.156983130590642</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1856929608957427</v>
+        <v>0.185692960895772</v>
       </c>
       <c r="G32" t="n">
-        <v>6.230624602048385</v>
+        <v>6.230624602048416</v>
       </c>
       <c r="H32" t="n">
         <v>4.645790419033347e-10</v>
@@ -1514,20 +1514,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Performance_expectancy</t>
+          <t>Social_influence</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.730308991801513</v>
+        <v>0.8494162723162787</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1534225579454527</v>
+        <v>0.1697388899291018</v>
       </c>
       <c r="G33" t="n">
-        <v>4.760114819988885</v>
+        <v>5.00425254734532</v>
       </c>
       <c r="H33" t="n">
-        <v>1.9348285509313e-06</v>
+        <v>5.607919735250988e-07</v>
       </c>
     </row>
     <row r="34">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.5955467323633804</v>
+        <v>0.595546732363554</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1327469676094038</v>
+        <v>0.1327469676094321</v>
       </c>
       <c r="G34" t="n">
-        <v>4.486330219694641</v>
+        <v>4.486330219694993</v>
       </c>
       <c r="H34" t="n">
         <v>7.246040795161335e-06</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Facilitating_conditions</t>
+          <t>Social_influence</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.8494162723162976</v>
+        <v>0.9026415426132223</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1697388899290984</v>
+        <v>0.2264254741561877</v>
       </c>
       <c r="G35" t="n">
-        <v>5.00425254734553</v>
+        <v>3.986484056058976</v>
       </c>
       <c r="H35" t="n">
-        <v>5.607919735250988e-07</v>
+        <v>6.705963186481867e-05</v>
       </c>
     </row>
     <row r="36">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Performance_expectancy</t>
+          <t>Social_influence</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1610,20 +1610,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Performance_expectancy</t>
+          <t>Effort_expectancy</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.8694372404165039</v>
+        <v>0.5733969698160098</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2186911946482338</v>
+        <v>0.1381357862660789</v>
       </c>
       <c r="G36" t="n">
-        <v>3.97563899091147</v>
+        <v>4.150966127686669</v>
       </c>
       <c r="H36" t="n">
-        <v>7.019053473000803e-05</v>
+        <v>3.310747658669122e-05</v>
       </c>
     </row>
     <row r="37">
@@ -1642,20 +1642,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Effort_expectancy</t>
+          <t>Performance_expectancy</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.6095380095346684</v>
+        <v>0.8694372404165676</v>
       </c>
       <c r="F37" t="n">
-        <v>0.140439020174436</v>
+        <v>0.2186911946482406</v>
       </c>
       <c r="G37" t="n">
-        <v>4.340232570500956</v>
+        <v>3.975638990911639</v>
       </c>
       <c r="H37" t="n">
-        <v>1.423319939242162e-05</v>
+        <v>7.019053473000803e-05</v>
       </c>
     </row>
     <row r="38">
@@ -1674,20 +1674,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Social_influence</t>
+          <t>Facilitating_conditions</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.7907333547758163</v>
+        <v>0.7303089918015716</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1710787318860347</v>
+        <v>0.153422557945467</v>
       </c>
       <c r="G38" t="n">
-        <v>4.622043582237603</v>
+        <v>4.760114819988822</v>
       </c>
       <c r="H38" t="n">
-        <v>3.79978156872518e-06</v>
+        <v>1.9348285509313e-06</v>
       </c>
     </row>
     <row r="39">
@@ -1696,30 +1696,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>Performance_expectancy</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>~~</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>Social_influence</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Social_influence</t>
-        </is>
-      </c>
       <c r="E39" t="n">
-        <v>0.9026415426134723</v>
+        <v>0.7907333547757471</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2264254741562207</v>
+        <v>0.1710787318860248</v>
       </c>
       <c r="G39" t="n">
-        <v>3.986484056059499</v>
+        <v>4.622043582237465</v>
       </c>
       <c r="H39" t="n">
-        <v>6.705963186459662e-05</v>
+        <v>3.79978156872518e-06</v>
       </c>
     </row>
     <row r="40">
@@ -1728,30 +1728,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>Performance_expectancy</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>~~</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>Effort_expectancy</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Effort_expectancy</t>
-        </is>
-      </c>
       <c r="E40" t="n">
-        <v>0.5666588667910628</v>
+        <v>0.609538009534802</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1689182546772844</v>
+        <v>0.1404390201744568</v>
       </c>
       <c r="G40" t="n">
-        <v>3.354633682844407</v>
+        <v>4.340232570501267</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0007947014423852483</v>
+        <v>1.423319939242162e-05</v>
       </c>
     </row>
     <row r="41">
@@ -1770,20 +1770,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Social_influence</t>
+          <t>Effort_expectancy</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.573396969816019</v>
+        <v>0.5666588667912185</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1381357862660796</v>
+        <v>0.1689182546773113</v>
       </c>
       <c r="G41" t="n">
-        <v>4.150966127686712</v>
+        <v>3.354633682844795</v>
       </c>
       <c r="H41" t="n">
-        <v>3.310747658669122e-05</v>
+        <v>0.0007947014423841381</v>
       </c>
     </row>
     <row r="42">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Performance_expectancy_Q4</t>
+          <t>Effort_expectancy_Q4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1802,20 +1802,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Performance_expectancy_Q4</t>
+          <t>Effort_expectancy_Q4</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.6689050836220592</v>
+        <v>0.2223367932271349</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1102070599213006</v>
+        <v>0.04208124172223852</v>
       </c>
       <c r="G42" t="n">
-        <v>6.069530246915742</v>
+        <v>5.283513131323637</v>
       </c>
       <c r="H42" t="n">
-        <v>1.282849382278073e-09</v>
+        <v>1.267297755624952e-07</v>
       </c>
     </row>
     <row r="43">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Performance_expectancy_Q3</t>
+          <t>Social_influence_Q3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1834,20 +1834,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Performance_expectancy_Q3</t>
+          <t>Social_influence_Q3</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.33322916894724</v>
+        <v>1.339898892248772</v>
       </c>
       <c r="F43" t="n">
-        <v>0.06559217785381123</v>
+        <v>0.2008354141162904</v>
       </c>
       <c r="G43" t="n">
-        <v>5.080318718564967</v>
+        <v>6.671626605984215</v>
       </c>
       <c r="H43" t="n">
-        <v>3.768021545891287e-07</v>
+        <v>2.529843001752852e-11</v>
       </c>
     </row>
     <row r="44">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Social_influence_Q2</t>
+          <t>Social_influence_Q1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1866,20 +1866,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Social_influence_Q2</t>
+          <t>Social_influence_Q1</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.8490141835686862</v>
+        <v>0.8035045779985098</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1301836235610395</v>
+        <v>0.1282042777270384</v>
       </c>
       <c r="G44" t="n">
-        <v>6.521666553274923</v>
+        <v>6.267377284422564</v>
       </c>
       <c r="H44" t="n">
-        <v>6.953038145240953e-11</v>
+        <v>3.671798420867844e-10</v>
       </c>
     </row>
     <row r="45">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Facilitating_conditions_Q2</t>
+          <t>Effort_expectancy_Q1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1898,20 +1898,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Facilitating_conditions_Q2</t>
+          <t>Effort_expectancy_Q1</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.1507525647615698</v>
+        <v>0.8296550221046624</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03315755759773906</v>
+        <v>0.1273184521992024</v>
       </c>
       <c r="G45" t="n">
-        <v>4.546552149163809</v>
+        <v>6.516376909766921</v>
       </c>
       <c r="H45" t="n">
-        <v>5.453186293413737e-06</v>
+        <v>7.202594076716196e-11</v>
       </c>
     </row>
     <row r="46">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Usage_behaviour_Q2</t>
+          <t>Effort_expectancy_Q2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1930,20 +1930,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Usage_behaviour_Q2</t>
+          <t>Effort_expectancy_Q2</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.2673244130870564</v>
+        <v>0.2490173797062641</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0681166809895495</v>
+        <v>0.05017703968033977</v>
       </c>
       <c r="G46" t="n">
-        <v>3.924507318906876</v>
+        <v>4.962775430509716</v>
       </c>
       <c r="H46" t="n">
-        <v>8.690741731132157e-05</v>
+        <v>6.949291606606067e-07</v>
       </c>
     </row>
     <row r="47">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Facilitating_conditions_Q3</t>
+          <t>Facilitating_conditions_Q2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1962,20 +1962,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Facilitating_conditions_Q3</t>
+          <t>Facilitating_conditions_Q2</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1990746122587915</v>
+        <v>0.1507525647615623</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03693005345883862</v>
+        <v>0.03315755759773818</v>
       </c>
       <c r="G47" t="n">
-        <v>5.390585542349264</v>
+        <v>4.5465521491637</v>
       </c>
       <c r="H47" t="n">
-        <v>7.022847570148372e-08</v>
+        <v>5.453186293413737e-06</v>
       </c>
     </row>
     <row r="48">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Performance_expectancy_Q2</t>
+          <t>Facilitating_conditions_Q1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1994,20 +1994,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Performance_expectancy_Q2</t>
+          <t>Facilitating_conditions_Q1</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.6537478727168419</v>
+        <v>0.1016891249756062</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1102115150620455</v>
+        <v>0.02926803482770871</v>
       </c>
       <c r="G48" t="n">
-        <v>5.931756516938101</v>
+        <v>3.474409046276671</v>
       </c>
       <c r="H48" t="n">
-        <v>2.997108561331174e-09</v>
+        <v>0.0005119799020640858</v>
       </c>
     </row>
     <row r="49">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Effort_expectancy_Q3</t>
+          <t>Usage_behaviour_Q1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2026,20 +2026,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Effort_expectancy_Q3</t>
+          <t>Usage_behaviour_Q1</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.2409941456135288</v>
+        <v>0.3359272662979138</v>
       </c>
       <c r="F49" t="n">
-        <v>0.04656998658905644</v>
+        <v>0.06415325202518513</v>
       </c>
       <c r="G49" t="n">
-        <v>5.174881146841163</v>
+        <v>5.236324826694677</v>
       </c>
       <c r="H49" t="n">
-        <v>2.28056107109964e-07</v>
+        <v>1.638055622255052e-07</v>
       </c>
     </row>
     <row r="50">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Facilitating_conditions_Q1</t>
+          <t>Facilitating_conditions_Q3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2058,20 +2058,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Facilitating_conditions_Q1</t>
+          <t>Facilitating_conditions_Q3</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1016891249756144</v>
+        <v>0.1990746122588166</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02926803482770943</v>
+        <v>0.0369300534588417</v>
       </c>
       <c r="G50" t="n">
-        <v>3.474409046276864</v>
+        <v>5.390585542349495</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0005119799020636417</v>
+        <v>7.022847570148372e-08</v>
       </c>
     </row>
     <row r="51">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Effort_expectancy_Q2</t>
+          <t>Behavioural_intention_Q2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2090,20 +2090,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Effort_expectancy_Q2</t>
+          <t>Behavioural_intention_Q2</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.2490173797062637</v>
+        <v>0.3075063433520616</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05017703968034022</v>
+        <v>0.06445035187362363</v>
       </c>
       <c r="G51" t="n">
-        <v>4.962775430509664</v>
+        <v>4.771212792604437</v>
       </c>
       <c r="H51" t="n">
-        <v>6.949291606606067e-07</v>
+        <v>1.831199540891504e-06</v>
       </c>
     </row>
     <row r="52">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Performance_expectancy_Q1</t>
+          <t>Performance_expectancy_Q4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2122,20 +2122,20 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Performance_expectancy_Q1</t>
+          <t>Performance_expectancy_Q4</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.7646251134338703</v>
+        <v>0.6689050836220931</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1246970391032297</v>
+        <v>0.1102070599213046</v>
       </c>
       <c r="G52" t="n">
-        <v>6.131862624217948</v>
+        <v>6.069530246915828</v>
       </c>
       <c r="H52" t="n">
-        <v>8.685610008996036e-10</v>
+        <v>1.282849382278073e-09</v>
       </c>
     </row>
     <row r="53">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Effort_expectancy_Q4</t>
+          <t>Performance_expectancy_Q5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2154,20 +2154,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Effort_expectancy_Q4</t>
+          <t>Performance_expectancy_Q5</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.2223367932271001</v>
+        <v>0.5846014275429217</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0420812417222351</v>
+        <v>0.0969480613407607</v>
       </c>
       <c r="G53" t="n">
-        <v>5.283513131323242</v>
+        <v>6.030047630164447</v>
       </c>
       <c r="H53" t="n">
-        <v>1.267297755624952e-07</v>
+        <v>1.639113733631348e-09</v>
       </c>
     </row>
     <row r="54">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Social_influence_Q1</t>
+          <t>Social_influence_Q2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2186,20 +2186,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Social_influence_Q1</t>
+          <t>Social_influence_Q2</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.8035045779984353</v>
+        <v>0.8490141835686568</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1282042777270272</v>
+        <v>0.1301836235610375</v>
       </c>
       <c r="G54" t="n">
-        <v>6.267377284422532</v>
+        <v>6.521666553274797</v>
       </c>
       <c r="H54" t="n">
-        <v>3.671798420867844e-10</v>
+        <v>6.953038145240953e-11</v>
       </c>
     </row>
     <row r="55">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Usage_behaviour_Q1</t>
+          <t>Behavioural_intention_Q1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2218,20 +2218,20 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Usage_behaviour_Q1</t>
+          <t>Behavioural_intention_Q1</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.3359272662978894</v>
+        <v>0.1607747258956936</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0641532520251815</v>
+        <v>0.05174235446939722</v>
       </c>
       <c r="G55" t="n">
-        <v>5.236324826694593</v>
+        <v>3.107217047644708</v>
       </c>
       <c r="H55" t="n">
-        <v>1.638055622255052e-07</v>
+        <v>0.001888576819480292</v>
       </c>
     </row>
     <row r="56">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Social_influence_Q3</t>
+          <t>Performance_expectancy_Q2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2250,20 +2250,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Social_influence_Q3</t>
+          <t>Performance_expectancy_Q2</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1.339898892248891</v>
+        <v>0.6537478727168688</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2008354141163052</v>
+        <v>0.1102115150620462</v>
       </c>
       <c r="G56" t="n">
-        <v>6.671626605984314</v>
+        <v>5.93175651693831</v>
       </c>
       <c r="H56" t="n">
-        <v>2.529843001752852e-11</v>
+        <v>2.997108561331174e-09</v>
       </c>
     </row>
     <row r="57">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Performance_expectancy_Q5</t>
+          <t>Effort_expectancy_Q3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2282,20 +2282,20 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Performance_expectancy_Q5</t>
+          <t>Effort_expectancy_Q3</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.5846014275430172</v>
+        <v>0.2409941456135365</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09694806134077423</v>
+        <v>0.04656998658905762</v>
       </c>
       <c r="G57" t="n">
-        <v>6.030047630164592</v>
+        <v>5.174881146841196</v>
       </c>
       <c r="H57" t="n">
-        <v>1.639113733631348e-09</v>
+        <v>2.28056107109964e-07</v>
       </c>
     </row>
     <row r="58">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Effort_expectancy_Q1</t>
+          <t>Performance_expectancy_Q1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2314,20 +2314,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Effort_expectancy_Q1</t>
+          <t>Performance_expectancy_Q1</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.8296550221046773</v>
+        <v>0.764625113433856</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1273184521992036</v>
+        <v>0.1246970391032276</v>
       </c>
       <c r="G58" t="n">
-        <v>6.516376909766977</v>
+        <v>6.131862624217936</v>
       </c>
       <c r="H58" t="n">
-        <v>7.202594076716196e-11</v>
+        <v>8.685610008996036e-10</v>
       </c>
     </row>
     <row r="59">
@@ -2350,13 +2350,13 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1.039204183376758</v>
+        <v>1.039204183376777</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1571021142570921</v>
+        <v>0.1571021142570951</v>
       </c>
       <c r="G59" t="n">
-        <v>6.614832577424913</v>
+        <v>6.614832577424904</v>
       </c>
       <c r="H59" t="n">
         <v>3.719735630625109e-11</v>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Behavioural_intention_Q1</t>
+          <t>Performance_expectancy_Q3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2378,20 +2378,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Behavioural_intention_Q1</t>
+          <t>Performance_expectancy_Q3</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.1607747258956892</v>
+        <v>0.3332291689472494</v>
       </c>
       <c r="F60" t="n">
-        <v>0.05174235446939779</v>
+        <v>0.06559217785381133</v>
       </c>
       <c r="G60" t="n">
-        <v>3.107217047644589</v>
+        <v>5.080318718565102</v>
       </c>
       <c r="H60" t="n">
-        <v>0.001888576819480958</v>
+        <v>3.768021545891287e-07</v>
       </c>
     </row>
     <row r="61">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Behavioural_intention_Q2</t>
+          <t>Usage_behaviour_Q2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2410,20 +2410,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Behavioural_intention_Q2</t>
+          <t>Usage_behaviour_Q2</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.3075063433520134</v>
+        <v>0.2673244130870184</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06445035187361639</v>
+        <v>0.06811668098954428</v>
       </c>
       <c r="G61" t="n">
-        <v>4.771212792604225</v>
+        <v>3.92450731890662</v>
       </c>
       <c r="H61" t="n">
-        <v>1.831199540891504e-06</v>
+        <v>8.690741731154361e-05</v>
       </c>
     </row>
   </sheetData>
